--- a/arknights007/resources/game_data/skill_data.xlsx
+++ b/arknights007/resources/game_data/skill_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangs\Desktop\Arknights007\arknights007\resources\game_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E29EBB-A9E4-4B3D-B65A-C554E90218B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485CC34C-82ED-4C2F-B873-D2102397A627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9112687D-D20A-4DB4-818E-BB1B42916CE1}"/>
   </bookViews>
@@ -43,16 +43,7 @@
     <t>控制中枢</t>
   </si>
   <si>
-    <t xml:space="preserve">  bskill_ctrl_p_spd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  bskill_ctrl_token_p_spd</t>
-  </si>
-  <si>
     <t xml:space="preserve">  bskill_ctrl_p_bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  bskill_ctrl_t_spd</t>
   </si>
   <si>
     <t xml:space="preserve">  bskill_ctrl_c_spd</t>
@@ -1549,6 +1540,18 @@
   </si>
   <si>
     <t>进驻加工站加工技巧概要时，副产品的产出概率提升80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bskill_ctrl_p_spd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  bskill_ctrl_t_spd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  bskill_ctrl_token_p_spd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2016,7 +2019,7 @@
   <dimension ref="A1:G244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2030,28 +2033,28 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" t="s">
         <v>252</v>
       </c>
-      <c r="B1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" t="s">
         <v>254</v>
       </c>
-      <c r="D1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" t="s">
-        <v>257</v>
-      </c>
       <c r="G1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2059,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -2071,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2079,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -2091,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2099,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -2111,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2119,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2131,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2139,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -2151,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2159,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -2171,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2179,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -2191,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2199,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -2211,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2219,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E10">
         <v>6</v>
@@ -2231,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2239,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -2251,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2259,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2271,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2279,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -2291,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2299,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -2311,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2319,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -2331,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2339,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -2351,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2359,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2371,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2379,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -2391,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2399,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -2411,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2419,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -2431,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2439,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>498</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2454,7 +2457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2462,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -2474,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2482,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -2494,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2502,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -2514,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2522,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -2534,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2542,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>499</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2557,7 +2560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2565,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -2577,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2585,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E28">
         <v>-1</v>
@@ -2600,7 +2603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2608,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -2625,13 +2628,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -2639,13 +2642,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
@@ -2653,13 +2656,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2667,13 +2670,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2681,13 +2684,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2695,13 +2698,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2709,13 +2712,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2723,13 +2726,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2737,13 +2740,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2751,13 +2754,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2765,13 +2768,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2779,13 +2782,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2793,13 +2796,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2807,13 +2810,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2821,13 +2824,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2835,13 +2838,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2849,13 +2852,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2863,13 +2866,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -2877,13 +2880,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -2891,13 +2894,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -2905,13 +2908,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -2919,13 +2922,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -2933,13 +2936,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -2947,13 +2950,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -2961,13 +2964,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -2975,13 +2978,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
@@ -2989,27 +2992,27 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E57">
         <v>5</v>
@@ -3018,18 +3021,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3038,18 +3041,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -3058,18 +3061,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -3078,18 +3081,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E61">
         <v>7</v>
@@ -3098,18 +3101,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E62">
         <v>5</v>
@@ -3118,18 +3121,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -3138,18 +3141,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -3158,18 +3161,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D65" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E65">
         <v>7</v>
@@ -3178,18 +3181,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D66" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E66">
         <v>8</v>
@@ -3198,18 +3201,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D67" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E67">
         <v>6</v>
@@ -3218,18 +3221,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D68" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E68">
         <v>4</v>
@@ -3238,18 +3241,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" t="s">
         <v>173</v>
       </c>
-      <c r="C69" t="s">
-        <v>176</v>
-      </c>
       <c r="D69" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -3258,18 +3261,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3278,18 +3281,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E71">
         <v>-1</v>
@@ -3298,18 +3301,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -3318,18 +3321,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E73">
         <v>100</v>
@@ -3338,18 +3341,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E74">
         <v>100</v>
@@ -3358,18 +3361,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
         <v>35</v>
       </c>
-      <c r="C75" t="s">
-        <v>38</v>
-      </c>
       <c r="D75" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -3378,18 +3381,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -3398,18 +3401,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -3418,18 +3421,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -3438,18 +3441,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -3458,18 +3461,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D80" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -3478,18 +3481,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D81" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -3498,18 +3501,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D82" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E82">
         <v>100</v>
@@ -3518,18 +3521,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D83" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -3538,18 +3541,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -3558,18 +3561,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E85">
         <v>3</v>
@@ -3578,18 +3581,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D86" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E86">
         <v>10</v>
@@ -3598,18 +3601,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E87">
         <v>10</v>
@@ -3618,18 +3621,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D88" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E88">
         <v>4</v>
@@ -3638,18 +3641,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E89">
         <v>6</v>
@@ -3658,18 +3661,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D90" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E90">
         <v>8</v>
@@ -3678,18 +3681,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E91">
         <v>8</v>
@@ -3698,18 +3701,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E92">
         <v>-1</v>
@@ -3718,18 +3721,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D93" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E93">
         <v>-1</v>
@@ -3738,18 +3741,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E94">
         <v>-1</v>
@@ -3758,18 +3761,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3778,18 +3781,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E96">
         <v>5</v>
@@ -3798,18 +3801,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E97">
         <v>6</v>
@@ -3818,18 +3821,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E98">
         <v>6</v>
@@ -3838,18 +3841,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E99">
         <v>9</v>
@@ -3858,18 +3861,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E100">
         <v>7</v>
@@ -3878,18 +3881,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D101" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -3898,18 +3901,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D102" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3918,18 +3921,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D103" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -3938,18 +3941,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D104" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -3958,18 +3961,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D105" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -3978,18 +3981,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D106" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -4003,13 +4006,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C107" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D107" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E107">
         <v>-1</v>
@@ -4023,13 +4026,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E108">
         <v>-1</v>
@@ -4043,13 +4046,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C109" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D109" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E109">
         <v>-1</v>
@@ -4063,13 +4066,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" t="s">
         <v>233</v>
       </c>
-      <c r="C110" t="s">
-        <v>236</v>
-      </c>
       <c r="D110" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E110">
         <v>-1</v>
@@ -4083,13 +4086,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D111" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E111">
         <v>-1</v>
@@ -4103,13 +4106,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E112">
         <v>-1</v>
@@ -4123,13 +4126,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D113" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E113">
         <v>-1</v>
@@ -4143,13 +4146,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E114">
         <v>-1</v>
@@ -4163,13 +4166,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C115" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E115">
         <v>-1</v>
@@ -4183,13 +4186,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D116" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E116">
         <v>-1</v>
@@ -4203,13 +4206,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E117">
         <v>-1</v>
@@ -4223,13 +4226,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D118" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E118">
         <v>-1</v>
@@ -4243,13 +4246,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D119" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -4263,13 +4266,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C120" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D120" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -4283,13 +4286,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D121" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -4303,13 +4306,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D122" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E122">
         <v>-1</v>
@@ -4323,13 +4326,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D123" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E123">
         <v>-1</v>
@@ -4338,18 +4341,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D124" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -4358,18 +4361,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D125" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E125">
         <v>100</v>
@@ -4378,18 +4381,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" t="s">
         <v>29</v>
       </c>
-      <c r="C126" t="s">
-        <v>32</v>
-      </c>
       <c r="D126" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -4398,18 +4401,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -4418,18 +4421,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -4438,18 +4441,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C129" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D129" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -4458,18 +4461,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C130" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D130" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E130">
         <v>10</v>
@@ -4478,18 +4481,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C131" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D131" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E131">
         <v>9</v>
@@ -4498,18 +4501,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C132" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D132" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -4518,18 +4521,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C133" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D133" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E133">
         <v>6</v>
@@ -4538,18 +4541,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C134" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D134" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E134">
         <v>100</v>
@@ -4558,18 +4561,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C135" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D135" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -4578,18 +4581,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C136" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D136" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E136">
         <v>100</v>
@@ -4598,18 +4601,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C137" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D137" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E137">
         <v>100</v>
@@ -4618,18 +4621,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C138" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D138" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E138">
         <v>100</v>
@@ -4638,18 +4641,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C139" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D139" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E139">
         <v>7</v>
@@ -4658,18 +4661,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C140" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D140" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -4678,18 +4681,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C141" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D141" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E141">
         <v>4</v>
@@ -4698,18 +4701,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C142" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D142" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E142">
         <v>6</v>
@@ -4718,18 +4721,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C143" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D143" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E143">
         <v>2</v>
@@ -4738,18 +4741,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C144" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D144" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E144">
         <v>8</v>
@@ -4758,18 +4761,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C145" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D145" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E145">
         <v>8</v>
@@ -4778,18 +4781,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C146" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D146" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E146">
         <v>7</v>
@@ -4798,18 +4801,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C147" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D147" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E147">
         <v>7</v>
@@ -4818,18 +4821,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C148" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D148" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -4838,18 +4841,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D149" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E149">
         <v>5</v>
@@ -4858,18 +4861,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C150" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D150" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E150">
         <v>4</v>
@@ -4878,18 +4881,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C151" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D151" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E151">
         <v>5</v>
@@ -4898,18 +4901,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C152" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D152" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -4918,18 +4921,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C153" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D153" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E153">
         <v>6</v>
@@ -4938,18 +4941,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C154" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D154" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E154">
         <v>4</v>
@@ -4958,18 +4961,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C155" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D155" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E155">
         <v>3</v>
@@ -4978,18 +4981,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156" t="s">
+        <v>68</v>
+      </c>
+      <c r="C156" t="s">
         <v>71</v>
       </c>
-      <c r="C156" t="s">
-        <v>74</v>
-      </c>
       <c r="D156" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E156">
         <v>100</v>
@@ -4998,18 +5001,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C157" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D157" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E157">
         <v>100</v>
@@ -5018,18 +5021,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C158" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D158" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -5038,18 +5041,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C159" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D159" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E159">
         <v>8</v>
@@ -5058,18 +5061,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C160" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D160" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E160">
         <v>7</v>
@@ -5083,13 +5086,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5097,13 +5100,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5111,13 +5114,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5125,13 +5128,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5139,13 +5142,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5153,13 +5156,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5167,13 +5170,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5181,13 +5184,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5195,13 +5198,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5209,13 +5212,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5223,13 +5226,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5237,13 +5240,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5251,13 +5254,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5265,13 +5268,13 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5279,13 +5282,13 @@
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5293,13 +5296,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5307,13 +5310,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5321,13 +5324,13 @@
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5335,13 +5338,13 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5349,13 +5352,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5363,13 +5366,13 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5377,13 +5380,13 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5391,13 +5394,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5405,13 +5408,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5419,13 +5422,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5433,13 +5436,13 @@
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5447,13 +5450,13 @@
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5461,13 +5464,13 @@
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5475,13 +5478,13 @@
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5489,13 +5492,13 @@
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D190" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5503,13 +5506,13 @@
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5517,13 +5520,13 @@
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5531,13 +5534,13 @@
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5545,13 +5548,13 @@
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5559,13 +5562,13 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5573,13 +5576,13 @@
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5587,13 +5590,13 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5601,13 +5604,13 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5615,13 +5618,13 @@
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5629,13 +5632,13 @@
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5643,13 +5646,13 @@
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5657,13 +5660,13 @@
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5671,13 +5674,13 @@
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5685,13 +5688,13 @@
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5699,13 +5702,13 @@
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5713,13 +5716,13 @@
         <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5727,13 +5730,13 @@
         <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5741,13 +5744,13 @@
         <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5755,13 +5758,13 @@
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5769,13 +5772,13 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5783,13 +5786,13 @@
         <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5797,13 +5800,13 @@
         <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5811,13 +5814,13 @@
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5825,13 +5828,13 @@
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5839,13 +5842,13 @@
         <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5853,13 +5856,13 @@
         <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5867,13 +5870,13 @@
         <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5881,13 +5884,13 @@
         <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5895,13 +5898,13 @@
         <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5909,13 +5912,13 @@
         <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5923,13 +5926,13 @@
         <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5937,13 +5940,13 @@
         <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5951,13 +5954,13 @@
         <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5965,13 +5968,13 @@
         <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D224" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5979,13 +5982,13 @@
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -5993,13 +5996,13 @@
         <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6007,13 +6010,13 @@
         <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6021,13 +6024,13 @@
         <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6035,13 +6038,13 @@
         <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6049,13 +6052,13 @@
         <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6063,13 +6066,13 @@
         <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6077,13 +6080,13 @@
         <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6091,13 +6094,13 @@
         <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6105,13 +6108,13 @@
         <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6119,13 +6122,13 @@
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6133,13 +6136,13 @@
         <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6147,13 +6150,13 @@
         <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6161,13 +6164,13 @@
         <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6175,13 +6178,13 @@
         <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6189,13 +6192,13 @@
         <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6203,13 +6206,13 @@
         <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6217,13 +6220,13 @@
         <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6231,13 +6234,13 @@
         <v>241</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
@@ -6245,25 +6248,20 @@
         <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G244" xr:uid="{117B623F-34EC-4E72-ADDB-B07A1C41CFB5}">
     <filterColumn colId="1">
       <filters>
-        <filter val="办公室"/>
-        <filter val="发电站"/>
         <filter val="会客室"/>
-        <filter val="控制中枢"/>
-        <filter val="贸易站"/>
-        <filter val="制造站"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G244">
